--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/005_小队等级.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/005_小队等级.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="72">
   <si>
     <t>等级id</t>
   </si>
@@ -105,25 +105,37 @@
     <t>欢迎加入STS</t>
   </si>
   <si>
-    <t>开启任务：&lt;color=#EE9F38&gt;旧日时光&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>开启任务：&lt;color=#EE9F38&gt;新人入职&lt;/color&gt;|开启&lt;color=#EE9F38&gt;通讯&lt;/color&gt;功能</t>
-  </si>
-  <si>
-    <t>开启&lt;color=#EE9F38&gt;商店&lt;/color&gt;功能|体力上限增加&lt;color=#FF000A&gt;10&lt;/color&gt;点</t>
-  </si>
-  <si>
-    <t>可以进入&lt;color=#EE9F38&gt;『警戒区』&lt;/color&gt;|体力上限增加&lt;color=#FF000A&gt;10&lt;/color&gt;点</t>
-  </si>
-  <si>
-    <t>开启任务：&lt;color=#EE9F38&gt;烟花异染&lt;/color&gt;|体力上限增加&lt;color=#FF000A&gt;10&lt;/color&gt;点</t>
-  </si>
-  <si>
-    <t>体力上限增加&lt;color=#FF000A&gt;10&lt;/color&gt;点</t>
-  </si>
-  <si>
-    <t>后续内容敬请期待</t>
+    <t>开启主线：&lt;color=#EE9F38&gt;《旧日时光》&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>开启主线：&lt;color=#EE9F38&gt;《公寓谜因》&lt;/color&gt;|开启&lt;color=#EE9F38&gt;【通讯】&lt;/color&gt;功能</t>
+  </si>
+  <si>
+    <t>开启&lt;color=#EE9F38&gt;【商店】&lt;/color&gt;功能|体力上限增加&lt;color=#FF000A&gt;5&lt;/color&gt;点</t>
+  </si>
+  <si>
+    <t>开启主线：&lt;color=#EE9F38&gt;《心理分型》&lt;/color&gt;|体力上限增加&lt;color=#FF000A&gt;5&lt;/color&gt;点</t>
+  </si>
+  <si>
+    <t>可在昭离公馆大厅领取物资|体力上限增加&lt;color=#FF000A&gt;5&lt;/color&gt;点</t>
+  </si>
+  <si>
+    <t>开启主线：&lt;color=#EE9F38&gt;《迷失在今夕》&lt;/color&gt;|体力上限增加&lt;color=#FF000A&gt;5&lt;/color&gt;点</t>
+  </si>
+  <si>
+    <t>可获得任务：&lt;color=#79C1FD&gt;《窒息》&lt;/color&gt;|体力上限增加&lt;color=#FF000A&gt;5&lt;/color&gt;点</t>
+  </si>
+  <si>
+    <t>体力上限增加&lt;color=#FF000A&gt;5&lt;/color&gt;点</t>
+  </si>
+  <si>
+    <t>开启主线：&lt;color=#EE9F38&gt;《烟花异染》&lt;/color&gt;|体力上限增加&lt;color=#FF000A&gt;5&lt;/color&gt;点</t>
+  </si>
+  <si>
+    <t>可获得任务：&lt;color=#79C1FD&gt;《欲望游戏》&lt;/color&gt;|体力上限增加&lt;color=#FF000A&gt;5&lt;/color&gt;点</t>
+  </si>
+  <si>
+    <t>后续内容暂未开放，敬请期待~</t>
   </si>
   <si>
     <t>属性id</t>
@@ -1368,7 +1380,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1507,7 +1519,7 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="14">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -1535,7 +1547,7 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="14">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1551,7 +1563,7 @@
         <v>100</v>
       </c>
       <c r="L5" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1563,7 +1575,7 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="14">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -1579,7 +1591,7 @@
         <v>105</v>
       </c>
       <c r="L6" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1591,7 +1603,7 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -1607,7 +1619,7 @@
         <v>110</v>
       </c>
       <c r="L7" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1619,7 +1631,7 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -1635,7 +1647,7 @@
         <v>115</v>
       </c>
       <c r="L8" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1647,7 +1659,7 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -1663,7 +1675,7 @@
         <v>120</v>
       </c>
       <c r="L9" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1675,7 +1687,7 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="14">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -1691,7 +1703,7 @@
         <v>125</v>
       </c>
       <c r="L10" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1703,12 +1715,12 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="14">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1719,7 +1731,7 @@
         <v>130</v>
       </c>
       <c r="L11" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1731,12 +1743,12 @@
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="14">
-        <v>1600</v>
+        <v>850</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1747,7 +1759,7 @@
         <v>135</v>
       </c>
       <c r="L12" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1759,12 +1771,12 @@
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="14">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1775,7 +1787,7 @@
         <v>140</v>
       </c>
       <c r="L13" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1786,10 +1798,10 @@
         <v>11</v>
       </c>
       <c r="D14">
-        <v>2000</v>
+        <v>950</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J14">
         <v>140</v>
@@ -1798,7 +1810,7 @@
         <v>145</v>
       </c>
       <c r="L14" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1809,19 +1821,19 @@
         <v>12</v>
       </c>
       <c r="D15">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J15">
         <v>145</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="14">
         <v>150</v>
       </c>
       <c r="L15" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1832,10 +1844,10 @@
         <v>13</v>
       </c>
       <c r="D16">
-        <v>2400</v>
+        <v>1050</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J16">
         <v>150</v>
@@ -1844,7 +1856,7 @@
         <v>155</v>
       </c>
       <c r="L16" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1855,19 +1867,19 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>2600</v>
+        <v>1100</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J17">
         <v>155</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="14">
         <v>160</v>
       </c>
       <c r="L17" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1878,10 +1890,10 @@
         <v>15</v>
       </c>
       <c r="D18">
-        <v>2800</v>
+        <v>1150</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J18">
         <v>160</v>
@@ -1890,7 +1902,7 @@
         <v>165</v>
       </c>
       <c r="L18" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1901,19 +1913,19 @@
         <v>16</v>
       </c>
       <c r="D19">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J19">
         <v>165</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="14">
         <v>170</v>
       </c>
       <c r="L19" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1924,10 +1936,10 @@
         <v>17</v>
       </c>
       <c r="D20">
-        <v>3200</v>
+        <v>1300</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J20">
         <v>170</v>
@@ -1936,7 +1948,7 @@
         <v>175</v>
       </c>
       <c r="L20" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1947,19 +1959,19 @@
         <v>18</v>
       </c>
       <c r="D21">
-        <v>3400</v>
+        <v>1400</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J21">
         <v>175</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="14">
         <v>180</v>
       </c>
       <c r="L21" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1970,19 +1982,19 @@
         <v>19</v>
       </c>
       <c r="D22">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J22">
         <v>180</v>
       </c>
-      <c r="K22">
-        <v>185</v>
+      <c r="K22" s="14">
+        <v>180</v>
       </c>
       <c r="L22" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1992,705 +2004,137 @@
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="D23">
-        <v>3800</v>
-      </c>
       <c r="G23" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J23">
-        <v>185</v>
-      </c>
-      <c r="K23">
-        <v>190</v>
+        <v>180</v>
+      </c>
+      <c r="K23" s="14">
+        <v>180</v>
       </c>
       <c r="L23" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>21</v>
-      </c>
-      <c r="D24">
-        <v>4000</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24">
-        <v>190</v>
-      </c>
-      <c r="K24">
-        <v>195</v>
-      </c>
-      <c r="L24" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>22</v>
-      </c>
-      <c r="D25">
-        <v>4500</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25">
-        <v>195</v>
-      </c>
-      <c r="K25">
-        <v>200</v>
-      </c>
-      <c r="L25" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26">
-        <v>23</v>
-      </c>
-      <c r="D26">
-        <v>5000</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26">
-        <v>200</v>
-      </c>
-      <c r="K26">
-        <v>200</v>
-      </c>
-      <c r="L26" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <v>24</v>
-      </c>
-      <c r="D27">
-        <v>5500</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27">
-        <v>200</v>
-      </c>
-      <c r="K27">
-        <v>205</v>
-      </c>
-      <c r="L27" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <v>25</v>
-      </c>
-      <c r="D28">
-        <v>6000</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J28">
-        <v>205</v>
-      </c>
-      <c r="K28">
-        <v>205</v>
-      </c>
-      <c r="L28" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29">
-        <v>26</v>
-      </c>
-      <c r="D29">
-        <v>6500</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29">
-        <v>205</v>
-      </c>
-      <c r="K29">
-        <v>210</v>
-      </c>
-      <c r="L29" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <v>27</v>
-      </c>
-      <c r="D30">
-        <v>7000</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J30">
-        <v>210</v>
-      </c>
-      <c r="K30">
-        <v>210</v>
-      </c>
-      <c r="L30" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31">
-        <v>28</v>
-      </c>
-      <c r="D31">
-        <v>7500</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J31">
-        <v>210</v>
-      </c>
-      <c r="K31">
-        <v>215</v>
-      </c>
-      <c r="L31" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <v>29</v>
-      </c>
-      <c r="D32">
-        <v>8000</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J32">
-        <v>215</v>
-      </c>
-      <c r="K32">
-        <v>215</v>
-      </c>
-      <c r="L32" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33">
-        <v>30</v>
-      </c>
-      <c r="D33">
-        <v>8500</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J33">
-        <v>215</v>
-      </c>
-      <c r="K33">
-        <v>220</v>
-      </c>
-      <c r="L33" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>31</v>
-      </c>
-      <c r="D34">
-        <v>9000</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J34">
-        <v>220</v>
-      </c>
-      <c r="K34">
-        <v>220</v>
-      </c>
-      <c r="L34" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <v>32</v>
-      </c>
-      <c r="D35">
-        <v>9500</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J35">
-        <v>220</v>
-      </c>
-      <c r="K35">
-        <v>225</v>
-      </c>
-      <c r="L35" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36">
-        <v>33</v>
-      </c>
-      <c r="D36">
-        <v>10000</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36">
-        <v>225</v>
-      </c>
-      <c r="K36">
-        <v>225</v>
-      </c>
-      <c r="L36" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37">
-        <v>34</v>
-      </c>
-      <c r="D37">
-        <v>11000</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J37">
-        <v>225</v>
-      </c>
-      <c r="K37">
-        <v>230</v>
-      </c>
-      <c r="L37" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38">
-        <v>35</v>
-      </c>
-      <c r="D38">
-        <v>12000</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J38">
-        <v>230</v>
-      </c>
-      <c r="K38">
-        <v>230</v>
-      </c>
-      <c r="L38" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39">
-        <v>36</v>
-      </c>
-      <c r="B39">
-        <v>36</v>
-      </c>
-      <c r="D39">
-        <v>13000</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J39">
-        <v>230</v>
-      </c>
-      <c r="K39">
-        <v>235</v>
-      </c>
-      <c r="L39" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="B40">
-        <v>37</v>
-      </c>
-      <c r="D40">
-        <v>14000</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J40">
-        <v>235</v>
-      </c>
-      <c r="K40">
-        <v>235</v>
-      </c>
-      <c r="L40" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41">
-        <v>38</v>
-      </c>
-      <c r="D41">
-        <v>15000</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J41">
-        <v>235</v>
-      </c>
-      <c r="K41">
-        <v>240</v>
-      </c>
-      <c r="L41" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="B42">
-        <v>39</v>
-      </c>
-      <c r="D42">
-        <v>16000</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J42">
-        <v>240</v>
-      </c>
-      <c r="K42">
-        <v>240</v>
-      </c>
-      <c r="L42" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43">
-        <v>40</v>
-      </c>
-      <c r="B43">
-        <v>40</v>
-      </c>
-      <c r="D43">
-        <v>17000</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J43">
-        <v>240</v>
-      </c>
-      <c r="K43">
-        <v>240</v>
-      </c>
-      <c r="L43" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44">
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>41</v>
-      </c>
-      <c r="D44">
-        <v>18000</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J44">
-        <v>240</v>
-      </c>
-      <c r="K44">
-        <v>240</v>
-      </c>
-      <c r="L44" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45">
-        <v>42</v>
-      </c>
-      <c r="B45">
-        <v>42</v>
-      </c>
-      <c r="D45">
-        <v>19000</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J45">
-        <v>240</v>
-      </c>
-      <c r="K45">
-        <v>240</v>
-      </c>
-      <c r="L45" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46">
-        <v>43</v>
-      </c>
-      <c r="B46">
-        <v>43</v>
-      </c>
-      <c r="D46">
-        <v>20000</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J46">
-        <v>240</v>
-      </c>
-      <c r="K46">
-        <v>240</v>
-      </c>
-      <c r="L46" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47">
-        <v>44</v>
-      </c>
-      <c r="B47">
-        <v>44</v>
-      </c>
-      <c r="D47">
-        <v>20000</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J47">
-        <v>240</v>
-      </c>
-      <c r="K47">
-        <v>240</v>
-      </c>
-      <c r="L47" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48">
-        <v>45</v>
-      </c>
-      <c r="B48">
-        <v>45</v>
-      </c>
-      <c r="D48">
-        <v>20000</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J48">
-        <v>240</v>
-      </c>
-      <c r="K48">
-        <v>240</v>
-      </c>
-      <c r="L48" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49">
-        <v>46</v>
-      </c>
-      <c r="B49">
-        <v>46</v>
-      </c>
-      <c r="D49">
-        <v>20000</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J49">
-        <v>240</v>
-      </c>
-      <c r="K49">
-        <v>240</v>
-      </c>
-      <c r="L49" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50">
-        <v>47</v>
-      </c>
-      <c r="B50">
-        <v>47</v>
-      </c>
-      <c r="D50">
-        <v>20000</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J50">
-        <v>240</v>
-      </c>
-      <c r="K50">
-        <v>240</v>
-      </c>
-      <c r="L50" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51">
-        <v>48</v>
-      </c>
-      <c r="B51">
-        <v>48</v>
-      </c>
-      <c r="D51">
-        <v>20000</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J51">
-        <v>240</v>
-      </c>
-      <c r="K51">
-        <v>240</v>
-      </c>
-      <c r="L51" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52">
-        <v>49</v>
-      </c>
-      <c r="B52">
-        <v>49</v>
-      </c>
-      <c r="D52">
-        <v>20000</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J52">
-        <v>240</v>
-      </c>
-      <c r="K52">
-        <v>240</v>
-      </c>
-      <c r="L52" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53">
-        <v>50</v>
-      </c>
-      <c r="B53">
-        <v>50</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J53">
-        <v>240</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="7:12">
+      <c r="G24" s="14"/>
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" spans="7:12">
+      <c r="G25" s="14"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="7:12">
+      <c r="G26" s="14"/>
+      <c r="L26" s="19"/>
+    </row>
+    <row r="27" spans="7:12">
+      <c r="G27" s="14"/>
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" spans="7:12">
+      <c r="G28" s="14"/>
+      <c r="L28" s="19"/>
+    </row>
+    <row r="29" spans="7:12">
+      <c r="G29" s="14"/>
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" spans="7:12">
+      <c r="G30" s="14"/>
+      <c r="L30" s="19"/>
+    </row>
+    <row r="31" spans="7:12">
+      <c r="G31" s="14"/>
+      <c r="L31" s="19"/>
+    </row>
+    <row r="32" spans="7:12">
+      <c r="G32" s="14"/>
+      <c r="L32" s="19"/>
+    </row>
+    <row r="33" spans="7:12">
+      <c r="G33" s="14"/>
+      <c r="L33" s="19"/>
+    </row>
+    <row r="34" spans="7:12">
+      <c r="G34" s="14"/>
+      <c r="L34" s="19"/>
+    </row>
+    <row r="35" spans="7:12">
+      <c r="G35" s="14"/>
+      <c r="L35" s="19"/>
+    </row>
+    <row r="36" spans="7:12">
+      <c r="G36" s="14"/>
+      <c r="L36" s="19"/>
+    </row>
+    <row r="37" spans="7:12">
+      <c r="G37" s="14"/>
+      <c r="L37" s="19"/>
+    </row>
+    <row r="38" spans="7:12">
+      <c r="G38" s="14"/>
+      <c r="L38" s="19"/>
+    </row>
+    <row r="39" spans="7:12">
+      <c r="G39" s="14"/>
+      <c r="L39" s="19"/>
+    </row>
+    <row r="40" spans="7:12">
+      <c r="G40" s="14"/>
+      <c r="L40" s="19"/>
+    </row>
+    <row r="41" spans="7:12">
+      <c r="G41" s="14"/>
+      <c r="L41" s="19"/>
+    </row>
+    <row r="42" spans="7:12">
+      <c r="G42" s="14"/>
+      <c r="L42" s="19"/>
+    </row>
+    <row r="43" spans="7:12">
+      <c r="G43" s="14"/>
+      <c r="L43" s="19"/>
+    </row>
+    <row r="44" spans="7:12">
+      <c r="G44" s="14"/>
+      <c r="L44" s="19"/>
+    </row>
+    <row r="45" spans="7:12">
+      <c r="G45" s="14"/>
+      <c r="L45" s="19"/>
+    </row>
+    <row r="46" spans="7:12">
+      <c r="G46" s="14"/>
+      <c r="L46" s="19"/>
+    </row>
+    <row r="47" spans="7:12">
+      <c r="G47" s="14"/>
+      <c r="L47" s="19"/>
+    </row>
+    <row r="48" spans="7:12">
+      <c r="G48" s="14"/>
+      <c r="L48" s="19"/>
+    </row>
+    <row r="49" spans="7:12">
+      <c r="G49" s="14"/>
+      <c r="L49" s="19"/>
+    </row>
+    <row r="50" spans="7:12">
+      <c r="G50" s="14"/>
+      <c r="L50" s="19"/>
+    </row>
+    <row r="51" spans="7:12">
+      <c r="G51" s="14"/>
+      <c r="L51" s="19"/>
+    </row>
+    <row r="52" spans="7:12">
+      <c r="G52" s="14"/>
+      <c r="L52" s="19"/>
+    </row>
+    <row r="53" spans="7:7">
+      <c r="G53" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2716,13 +2160,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2730,10 +2174,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2752,10 +2196,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2763,10 +2207,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2774,10 +2218,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2811,10 +2255,10 @@
         <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J1">
         <v>60</v>
@@ -2834,13 +2278,13 @@
         <v>1000</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2">
         <v>60</v>
@@ -2860,13 +2304,13 @@
         <v>1200</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3">
         <v>65</v>
@@ -2886,13 +2330,13 @@
         <v>1400</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4">
         <v>70</v>
@@ -2912,10 +2356,10 @@
         <v>1600</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J5">
         <v>75</v>
@@ -2935,13 +2379,13 @@
         <v>1800</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J6">
         <v>80</v>
@@ -2961,10 +2405,10 @@
         <v>2000</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J7">
         <v>85</v>
@@ -2984,10 +2428,10 @@
         <v>2200</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J8">
         <v>90</v>
@@ -3007,13 +2451,13 @@
         <v>2400</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J9">
         <v>95</v>
@@ -3033,10 +2477,10 @@
         <v>2600</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J10">
         <v>100</v>
@@ -3056,10 +2500,10 @@
         <v>2800</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>105</v>
@@ -3079,13 +2523,13 @@
         <v>3000</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J12">
         <v>110</v>
@@ -3105,10 +2549,10 @@
         <v>3200</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J13">
         <v>115</v>
@@ -3128,10 +2572,10 @@
         <v>3400</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J14">
         <v>120</v>
@@ -3151,10 +2595,10 @@
         <v>3600</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J15">
         <v>125</v>
@@ -3174,13 +2618,13 @@
         <v>3800</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J16">
         <v>130</v>
@@ -3200,10 +2644,10 @@
         <v>4000</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J17">
         <v>135</v>
@@ -3223,10 +2667,10 @@
         <v>4200</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J18">
         <v>140</v>
@@ -3246,10 +2690,10 @@
         <v>4400</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J19">
         <v>145</v>
@@ -3269,10 +2713,10 @@
         <v>4600</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J20">
         <v>150</v>
@@ -3292,13 +2736,13 @@
         <v>4800</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J21">
         <v>155</v>
@@ -3318,10 +2762,10 @@
         <v>5000</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J22">
         <v>160</v>
@@ -3341,10 +2785,10 @@
         <v>5400</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J23">
         <v>165</v>
@@ -3364,10 +2808,10 @@
         <v>5800</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J24">
         <v>170</v>
@@ -3387,10 +2831,10 @@
         <v>6200</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J25">
         <v>175</v>
@@ -3410,13 +2854,13 @@
         <v>6600</v>
       </c>
       <c r="G26" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J26">
         <v>180</v>
@@ -3436,10 +2880,10 @@
         <v>7000</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J27">
         <v>185</v>
@@ -3459,10 +2903,10 @@
         <v>7400</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J28">
         <v>185</v>
@@ -3482,10 +2926,10 @@
         <v>7800</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J29">
         <v>190</v>
@@ -3505,10 +2949,10 @@
         <v>8200</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J30">
         <v>190</v>
@@ -3528,13 +2972,13 @@
         <v>8600</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J31">
         <v>195</v>
@@ -3554,10 +2998,10 @@
         <v>9000</v>
       </c>
       <c r="H32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J32">
         <v>195</v>
@@ -3577,10 +3021,10 @@
         <v>9400</v>
       </c>
       <c r="H33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J33">
         <v>200</v>
@@ -3600,10 +3044,10 @@
         <v>9800</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J34">
         <v>200</v>
@@ -3623,10 +3067,10 @@
         <v>10200</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I35" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J35">
         <v>205</v>
@@ -3646,13 +3090,13 @@
         <v>10600</v>
       </c>
       <c r="G36" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J36">
         <v>205</v>
@@ -3672,10 +3116,10 @@
         <v>11000</v>
       </c>
       <c r="H37" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J37">
         <v>210</v>
@@ -3695,10 +3139,10 @@
         <v>12000</v>
       </c>
       <c r="H38" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J38">
         <v>210</v>
@@ -3718,10 +3162,10 @@
         <v>13000</v>
       </c>
       <c r="H39" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J39">
         <v>215</v>
@@ -3741,10 +3185,10 @@
         <v>14000</v>
       </c>
       <c r="H40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J40">
         <v>215</v>
@@ -3764,13 +3208,13 @@
         <v>15000</v>
       </c>
       <c r="G41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H41" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J41">
         <v>220</v>
@@ -3790,10 +3234,10 @@
         <v>16000</v>
       </c>
       <c r="H42" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J42">
         <v>220</v>
@@ -3813,10 +3257,10 @@
         <v>17000</v>
       </c>
       <c r="H43" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J43">
         <v>225</v>
@@ -3836,10 +3280,10 @@
         <v>18000</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I44" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J44">
         <v>225</v>
@@ -3859,10 +3303,10 @@
         <v>19000</v>
       </c>
       <c r="H45" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I45" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J45">
         <v>230</v>
@@ -3882,10 +3326,10 @@
         <v>20000</v>
       </c>
       <c r="H46" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I46" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J46">
         <v>230</v>
@@ -3905,10 +3349,10 @@
         <v>30000</v>
       </c>
       <c r="H47" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I47" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J47">
         <v>235</v>
@@ -3928,10 +3372,10 @@
         <v>40000</v>
       </c>
       <c r="H48" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I48" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J48">
         <v>235</v>
@@ -3951,10 +3395,10 @@
         <v>50000</v>
       </c>
       <c r="H49" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I49" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J49">
         <v>240</v>
@@ -3971,10 +3415,10 @@
         <v>50</v>
       </c>
       <c r="H50" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I50" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J50">
         <v>240</v>
